--- a/stage2_excels/SP/SP_color_space.xlsx
+++ b/stage2_excels/SP/SP_color_space.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="SP" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -538,193 +538,193 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20231217-SP3-16 (2)</t>
+          <t>20231031-DAY0-SP1 (1)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5275.285213575725</v>
+        <v>4703.547453800553</v>
       </c>
       <c r="C2" t="n">
-        <v>17.42546740971991</v>
+        <v>41.72264230735249</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>9.180821630034202</v>
+        <v>2047.612907488917</v>
       </c>
       <c r="F2" t="n">
-        <v>3.029987067634811</v>
+        <v>45.25055698539983</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>109.0343454201252</v>
+        <v>63.79409790130644</v>
       </c>
       <c r="J2" t="n">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="K2" t="n">
-        <v>848.7229023860918</v>
+        <v>3035.155144060486</v>
       </c>
       <c r="L2" t="n">
-        <v>29.13284919787441</v>
+        <v>55.09224214043649</v>
       </c>
       <c r="M2" t="n">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="N2" t="n">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="O2" t="n">
-        <v>120.0057791692291</v>
+        <v>88.99334585558707</v>
       </c>
       <c r="P2" t="n">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="Q2" t="n">
-        <v>1451.470665028328</v>
+        <v>3605.384531398463</v>
       </c>
       <c r="R2" t="n">
-        <v>38.09817141318371</v>
+        <v>60.04485432906356</v>
       </c>
       <c r="S2" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T2" t="n">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20231114-DAY14-SP1 (18)</t>
+          <t>20231031-DAY0-SP1 (2)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5850.833819098548</v>
+        <v>4207.669720249644</v>
       </c>
       <c r="C3" t="n">
-        <v>15.08420180627527</v>
+        <v>47.82655490638471</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
-        <v>94.16056876595934</v>
+        <v>1262.798637792325</v>
       </c>
       <c r="F3" t="n">
-        <v>9.703636883455571</v>
+        <v>35.53587817674308</v>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="I3" t="n">
-        <v>131.6133236206394</v>
+        <v>59.01785789612949</v>
       </c>
       <c r="J3" t="n">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="K3" t="n">
-        <v>1108.863030414417</v>
+        <v>1601.940219967413</v>
       </c>
       <c r="L3" t="n">
-        <v>33.29959504880529</v>
+        <v>40.02424540159893</v>
       </c>
       <c r="M3" t="n">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="N3" t="n">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="O3" t="n">
-        <v>125.4919606801165</v>
+        <v>78.23309435366178</v>
       </c>
       <c r="P3" t="n">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="Q3" t="n">
-        <v>1326.960307566964</v>
+        <v>2151.666642354679</v>
       </c>
       <c r="R3" t="n">
-        <v>36.42746638962095</v>
+        <v>46.38606086266304</v>
       </c>
       <c r="S3" t="n">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="T3" t="n">
-        <v>158</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20231031-DAY0-SP1 (2)</t>
+          <t>20231031-DAY0-SP2 (14)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4207.669720249644</v>
+        <v>4932.206263941596</v>
       </c>
       <c r="C4" t="n">
-        <v>28.56691541988296</v>
+        <v>40.33792515476901</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E4" t="n">
-        <v>2225.897001266549</v>
+        <v>769.4193368770683</v>
       </c>
       <c r="F4" t="n">
-        <v>47.17941289658604</v>
+        <v>27.73840905454147</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I4" t="n">
-        <v>101.4649468138614</v>
+        <v>61.68357197762658</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="K4" t="n">
-        <v>2087.511551959863</v>
+        <v>994.0949656296974</v>
       </c>
       <c r="L4" t="n">
-        <v>45.6892936250919</v>
+        <v>31.52927156833309</v>
       </c>
       <c r="M4" t="n">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="O4" t="n">
-        <v>79.13009402886516</v>
+        <v>94.19346175520616</v>
       </c>
       <c r="P4" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="Q4" t="n">
-        <v>2208.895741598862</v>
+        <v>1172.193031385378</v>
       </c>
       <c r="R4" t="n">
-        <v>46.99889085498573</v>
+        <v>34.23730467465829</v>
       </c>
       <c r="S4" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="T4" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
@@ -737,1469 +737,1469 @@
         <v>3358.33503544389</v>
       </c>
       <c r="C5" t="n">
-        <v>20.25813966737841</v>
+        <v>38.84873152664242</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>1424.954349688763</v>
+        <v>878.8309465718831</v>
       </c>
       <c r="F5" t="n">
-        <v>37.74856751836768</v>
+        <v>29.64508300834867</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="I5" t="n">
-        <v>116.1663464275548</v>
+        <v>49.28790426209034</v>
       </c>
       <c r="J5" t="n">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="K5" t="n">
-        <v>1701.09441475043</v>
+        <v>1014.923961224139</v>
       </c>
       <c r="L5" t="n">
-        <v>41.24432584914476</v>
+        <v>31.85787126008483</v>
       </c>
       <c r="M5" t="n">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="N5" t="n">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="O5" t="n">
-        <v>69.79327151688065</v>
+        <v>69.49345296790381</v>
       </c>
       <c r="P5" t="n">
         <v>62</v>
       </c>
       <c r="Q5" t="n">
-        <v>1417.254164826602</v>
+        <v>1403.15711443209</v>
       </c>
       <c r="R5" t="n">
-        <v>37.64643628322078</v>
+        <v>37.4587388259681</v>
       </c>
       <c r="S5" t="n">
         <v>36</v>
       </c>
       <c r="T5" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20231217-SP3-8 (2)</t>
+          <t>20231031-DAY0-SP3 (1)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6796.976083817637</v>
+        <v>4764.896021376224</v>
       </c>
       <c r="C6" t="n">
-        <v>42.97507010193646</v>
+        <v>33.64601896123704</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>1109.804119640347</v>
+        <v>623.157034238806</v>
       </c>
       <c r="F6" t="n">
-        <v>33.31372269261342</v>
+        <v>24.96311347245784</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="I6" t="n">
-        <v>47.0120583277358</v>
+        <v>43.94016587226414</v>
       </c>
       <c r="J6" t="n">
+        <v>35</v>
+      </c>
+      <c r="K6" t="n">
+        <v>715.9537494149656</v>
+      </c>
+      <c r="L6" t="n">
+        <v>26.75731207380453</v>
+      </c>
+      <c r="M6" t="n">
         <v>25</v>
       </c>
-      <c r="K6" t="n">
-        <v>2303.775016166525</v>
-      </c>
-      <c r="L6" t="n">
-        <v>47.99765636118627</v>
-      </c>
-      <c r="M6" t="n">
-        <v>8</v>
-      </c>
       <c r="N6" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="O6" t="n">
-        <v>149.1919616847326</v>
+        <v>66.59250824205131</v>
       </c>
       <c r="P6" t="n">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="Q6" t="n">
-        <v>2049.176564318319</v>
+        <v>886.5840093087618</v>
       </c>
       <c r="R6" t="n">
-        <v>45.26783145146583</v>
+        <v>29.77556060444138</v>
       </c>
       <c r="S6" t="n">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="T6" t="n">
-        <v>188</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20231114-DAy14-SP3 (5)</t>
+          <t>20231031-DAY0-SP3 (2)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4991.599000630907</v>
+        <v>5623.790081679127</v>
       </c>
       <c r="C7" t="n">
-        <v>16.3116298613874</v>
+        <v>38.03548701273088</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
-        <v>112.4388343055181</v>
+        <v>805.4175158229506</v>
       </c>
       <c r="F7" t="n">
-        <v>10.60371794728236</v>
+        <v>28.37987871402819</v>
       </c>
       <c r="G7" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I7" t="n">
-        <v>121.483665137449</v>
+        <v>46.09267913079807</v>
       </c>
       <c r="J7" t="n">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="K7" t="n">
-        <v>1084.183343120665</v>
+        <v>864.6015219812978</v>
       </c>
       <c r="L7" t="n">
-        <v>32.92693947394238</v>
+        <v>29.40410722979526</v>
       </c>
       <c r="M7" t="n">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="N7" t="n">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="O7" t="n">
-        <v>127.6728669194272</v>
+        <v>64.60769610441972</v>
       </c>
       <c r="P7" t="n">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="Q7" t="n">
-        <v>1219.895550600178</v>
+        <v>986.516358638237</v>
       </c>
       <c r="R7" t="n">
-        <v>34.92700317233327</v>
+        <v>31.4088579645653</v>
       </c>
       <c r="S7" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="T7" t="n">
-        <v>158</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20231114-DAY14-SP1 (12)</t>
+          <t>20231114-DAY14-SP1 (10)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6345.997775191959</v>
+        <v>6090.455363805716</v>
       </c>
       <c r="C8" t="n">
-        <v>19.72604303869167</v>
+        <v>70.41105298457411</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E8" t="n">
-        <v>515.0669628072492</v>
+        <v>1170.646735239353</v>
       </c>
       <c r="F8" t="n">
-        <v>22.6950867547857</v>
+        <v>34.21471518571143</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H8" t="n">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="I8" t="n">
-        <v>63.70601804464886</v>
+        <v>99.66340866995381</v>
       </c>
       <c r="J8" t="n">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="K8" t="n">
-        <v>686.5651684070039</v>
+        <v>1607.433658287817</v>
       </c>
       <c r="L8" t="n">
-        <v>26.20238860117535</v>
+        <v>40.09281305031885</v>
       </c>
       <c r="M8" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N8" t="n">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="O8" t="n">
-        <v>140.7866080177523</v>
+        <v>135.201911244806</v>
       </c>
       <c r="P8" t="n">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q8" t="n">
-        <v>1137.599215135695</v>
+        <v>1996.520433672379</v>
       </c>
       <c r="R8" t="n">
-        <v>33.7283147390393</v>
+        <v>44.6824398804763</v>
       </c>
       <c r="S8" t="n">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="T8" t="n">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20231031-DAY0-SP2 (14)</t>
+          <t>20231114-DAY14-SP1 (12)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4932.206263941596</v>
+        <v>6345.997775191959</v>
       </c>
       <c r="C9" t="n">
-        <v>16.80072971676269</v>
+        <v>106.309753979022</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="E9" t="n">
-        <v>732.0272905743145</v>
+        <v>953.4704518210766</v>
       </c>
       <c r="F9" t="n">
-        <v>27.05600285656243</v>
+        <v>30.87831685537728</v>
       </c>
       <c r="G9" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="H9" t="n">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="I9" t="n">
-        <v>145.3373270155602</v>
+        <v>123.9959703282921</v>
       </c>
       <c r="J9" t="n">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="K9" t="n">
-        <v>2394.470526699244</v>
+        <v>1075.396731926653</v>
       </c>
       <c r="L9" t="n">
-        <v>48.93332736182206</v>
+        <v>32.79324216857267</v>
       </c>
       <c r="M9" t="n">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="N9" t="n">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="O9" t="n">
-        <v>94.6066994475382</v>
+        <v>140.4729777550271</v>
       </c>
       <c r="P9" t="n">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="Q9" t="n">
-        <v>1199.662365770587</v>
+        <v>1169.290984408294</v>
       </c>
       <c r="R9" t="n">
-        <v>34.63614247820601</v>
+        <v>34.19489705216692</v>
       </c>
       <c r="S9" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="T9" t="n">
-        <v>116</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20231031-DAY0-SP3 (2)</t>
+          <t>20231114-DAY14-SP1 (17)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5623.790081679127</v>
+        <v>6380.757124315635</v>
       </c>
       <c r="C10" t="n">
-        <v>19.04327503121937</v>
+        <v>100.2375823874357</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="E10" t="n">
-        <v>1342.987529191305</v>
+        <v>1008.858292028168</v>
       </c>
       <c r="F10" t="n">
-        <v>36.64679425531386</v>
+        <v>31.76252968559287</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="I10" t="n">
-        <v>111.8406261685113</v>
+        <v>117.4706576709313</v>
       </c>
       <c r="J10" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K10" t="n">
-        <v>1369.694077066822</v>
+        <v>1196.025499686426</v>
       </c>
       <c r="L10" t="n">
-        <v>37.00937823129188</v>
+        <v>34.5836016008516</v>
       </c>
       <c r="M10" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N10" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="O10" t="n">
-        <v>65.40918205823669</v>
+        <v>132.349032549463</v>
       </c>
       <c r="P10" t="n">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="Q10" t="n">
-        <v>1073.77731778759</v>
+        <v>1303.139614706436</v>
       </c>
       <c r="R10" t="n">
-        <v>32.7685415877422</v>
+        <v>36.09902512127489</v>
       </c>
       <c r="S10" t="n">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="T10" t="n">
-        <v>84</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20231217-SP3-4  (1)</t>
+          <t>20231114-DAY14-SP1 (18)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6367.852673106659</v>
+        <v>5850.833819098548</v>
       </c>
       <c r="C11" t="n">
-        <v>14.84856490621016</v>
+        <v>61.79030192245303</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="E11" t="n">
-        <v>4.578815455898176</v>
+        <v>749.8891964693483</v>
       </c>
       <c r="F11" t="n">
-        <v>2.139816687452029</v>
+        <v>27.38410481409514</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H11" t="n">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I11" t="n">
-        <v>136.8246940156981</v>
+        <v>92.00141901954952</v>
       </c>
       <c r="J11" t="n">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="K11" t="n">
-        <v>788.0128001151113</v>
+        <v>991.8883704016359</v>
       </c>
       <c r="L11" t="n">
-        <v>28.07156568692084</v>
+        <v>31.49425932454415</v>
       </c>
       <c r="M11" t="n">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="N11" t="n">
+        <v>120</v>
+      </c>
+      <c r="O11" t="n">
+        <v>125.3410695094267</v>
+      </c>
+      <c r="P11" t="n">
+        <v>133</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1328.645726354325</v>
+      </c>
+      <c r="R11" t="n">
+        <v>36.45059294928307</v>
+      </c>
+      <c r="S11" t="n">
+        <v>94</v>
+      </c>
+      <c r="T11" t="n">
         <v>158</v>
-      </c>
-      <c r="O11" t="n">
-        <v>110.8593590244937</v>
-      </c>
-      <c r="P11" t="n">
-        <v>106</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>917.0010731140409</v>
-      </c>
-      <c r="R11" t="n">
-        <v>30.2820255781221</v>
-      </c>
-      <c r="S11" t="n">
-        <v>86</v>
-      </c>
-      <c r="T11" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20231114-DAy14-SP3 (20)</t>
+          <t>20231114-DAy14-SP3 (12)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4772.493517025508</v>
+        <v>5688.259913390969</v>
       </c>
       <c r="C12" t="n">
-        <v>20.60407950324937</v>
+        <v>63.51042572970535</v>
       </c>
       <c r="D12" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E12" t="n">
-        <v>101.9075280301457</v>
+        <v>1009.256485828152</v>
       </c>
       <c r="F12" t="n">
-        <v>10.09492585560418</v>
+        <v>31.76879736200526</v>
       </c>
       <c r="G12" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H12" t="n">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I12" t="n">
-        <v>107.6407836951947</v>
+        <v>89.99723848479358</v>
       </c>
       <c r="J12" t="n">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="K12" t="n">
-        <v>1830.090840016893</v>
+        <v>1449.511779956115</v>
       </c>
       <c r="L12" t="n">
-        <v>42.77956100776272</v>
+        <v>38.07245434636589</v>
       </c>
       <c r="M12" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="N12" t="n">
+        <v>118</v>
+      </c>
+      <c r="O12" t="n">
+        <v>113.8323592046911</v>
+      </c>
+      <c r="P12" t="n">
+        <v>108</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1815.079756560166</v>
+      </c>
+      <c r="R12" t="n">
+        <v>42.60375284596612</v>
+      </c>
+      <c r="S12" t="n">
+        <v>77</v>
+      </c>
+      <c r="T12" t="n">
         <v>147</v>
-      </c>
-      <c r="O12" t="n">
-        <v>143.5268765642612</v>
-      </c>
-      <c r="P12" t="n">
-        <v>155</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2061.186188385371</v>
-      </c>
-      <c r="R12" t="n">
-        <v>45.40028841742496</v>
-      </c>
-      <c r="S12" t="n">
-        <v>107</v>
-      </c>
-      <c r="T12" t="n">
-        <v>184</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20231217-SP3-18 (1)</t>
+          <t>20231114-DAy14-SP3 (13)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7719.591920926362</v>
+        <v>5965.766103998989</v>
       </c>
       <c r="C13" t="n">
-        <v>21.87398994048223</v>
+        <v>86.63297594380917</v>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E13" t="n">
-        <v>9.729399917417451</v>
+        <v>1028.550802165937</v>
       </c>
       <c r="F13" t="n">
-        <v>3.119198601791404</v>
+        <v>32.07102745728513</v>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="H13" t="n">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="I13" t="n">
-        <v>80.43544291683695</v>
+        <v>113.6783625790307</v>
       </c>
       <c r="J13" t="n">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="K13" t="n">
-        <v>1943.878857257645</v>
+        <v>1214.433919660429</v>
       </c>
       <c r="L13" t="n">
-        <v>44.08944156209789</v>
+        <v>34.84872909677524</v>
       </c>
       <c r="M13" t="n">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="N13" t="n">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="O13" t="n">
-        <v>134.1393447761217</v>
+        <v>129.0668269242151</v>
       </c>
       <c r="P13" t="n">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="Q13" t="n">
-        <v>1547.038405124945</v>
+        <v>1485.175516826517</v>
       </c>
       <c r="R13" t="n">
-        <v>39.33240909383692</v>
+        <v>38.53797499644366</v>
       </c>
       <c r="S13" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="T13" t="n">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20231114-DAY14-SP1 (10)</t>
+          <t>20231114-DAy14-SP3 (20)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6090.455363805716</v>
+        <v>4772.493517025508</v>
       </c>
       <c r="C14" t="n">
-        <v>14.36562469514599</v>
+        <v>87.86693808418225</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="E14" t="n">
-        <v>119.9394751927371</v>
+        <v>1948.875698776661</v>
       </c>
       <c r="F14" t="n">
-        <v>10.95168823482193</v>
+        <v>44.14607229161685</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="I14" t="n">
-        <v>127.0683775497756</v>
+        <v>124.2612976571218</v>
       </c>
       <c r="J14" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K14" t="n">
-        <v>1254.788419292776</v>
+        <v>2236.159134875203</v>
       </c>
       <c r="L14" t="n">
-        <v>35.42299280541914</v>
+        <v>47.28804431222762</v>
       </c>
       <c r="M14" t="n">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="N14" t="n">
+        <v>166</v>
+      </c>
+      <c r="O14" t="n">
+        <v>143.2660768759119</v>
+      </c>
+      <c r="P14" t="n">
         <v>154</v>
       </c>
-      <c r="O14" t="n">
-        <v>135.3685760246628</v>
-      </c>
-      <c r="P14" t="n">
-        <v>143</v>
-      </c>
       <c r="Q14" t="n">
-        <v>1984.94311538293</v>
+        <v>2072.221387002306</v>
       </c>
       <c r="R14" t="n">
-        <v>44.55270042750416</v>
+        <v>45.52165843861915</v>
       </c>
       <c r="S14" t="n">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="T14" t="n">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20231031-DAY0-SP3 (1)</t>
+          <t>20231114-DAy14-SP3 (5)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4764.896021376224</v>
+        <v>4991.599000630907</v>
       </c>
       <c r="C15" t="n">
-        <v>13.34110910825999</v>
+        <v>69.49803644500348</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E15" t="n">
-        <v>587.0432307188316</v>
+        <v>885.4610956867471</v>
       </c>
       <c r="F15" t="n">
-        <v>24.22897502410764</v>
+        <v>29.75669833309379</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="I15" t="n">
-        <v>128.5687318945338</v>
+        <v>98.25395101908208</v>
       </c>
       <c r="J15" t="n">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="K15" t="n">
-        <v>1424.764409649181</v>
+        <v>1022.540105114245</v>
       </c>
       <c r="L15" t="n">
-        <v>37.74605157694221</v>
+        <v>31.97718100637148</v>
       </c>
       <c r="M15" t="n">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="O15" t="n">
-        <v>66.9406549862811</v>
+        <v>127.3135706797141</v>
       </c>
       <c r="P15" t="n">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="Q15" t="n">
-        <v>929.0687829268671</v>
+        <v>1239.216898754034</v>
       </c>
       <c r="R15" t="n">
-        <v>30.48062963468549</v>
+        <v>35.20251267671149</v>
       </c>
       <c r="S15" t="n">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="T15" t="n">
-        <v>89</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20231211-1.5M-SP3 (17)</t>
+          <t>20231211-1.5m-SP1 (3)-1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6440.117599876924</v>
+        <v>7927.381813877891</v>
       </c>
       <c r="C16" t="n">
-        <v>21.64169887585077</v>
+        <v>92.58007665486259</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="E16" t="n">
-        <v>137.3985671896855</v>
+        <v>1508.442742831687</v>
       </c>
       <c r="F16" t="n">
-        <v>11.72171349204908</v>
+        <v>38.83867586352149</v>
       </c>
       <c r="G16" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="I16" t="n">
-        <v>89.71945831550812</v>
+        <v>111.9651881315649</v>
       </c>
       <c r="J16" t="n">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="K16" t="n">
-        <v>1991.106992152221</v>
+        <v>1527.929465299603</v>
       </c>
       <c r="L16" t="n">
-        <v>44.62182192775438</v>
+        <v>39.08873834366624</v>
       </c>
       <c r="M16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="N16" t="n">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="O16" t="n">
-        <v>134.1181889765012</v>
+        <v>126.1190694567804</v>
       </c>
       <c r="P16" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q16" t="n">
-        <v>1093.260028663889</v>
+        <v>1548.013728943154</v>
       </c>
       <c r="R16" t="n">
-        <v>33.06448288819725</v>
+        <v>39.34480561577544</v>
       </c>
       <c r="S16" t="n">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="T16" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20231217-SP3-7 (3)</t>
+          <t>20231211-1.5m-SP1 (7)-1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4255.329487941294</v>
+        <v>9875.397441974832</v>
       </c>
       <c r="C17" t="n">
-        <v>17.98335211687509</v>
+        <v>90.74503152919722</v>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="E17" t="n">
-        <v>7.29635690693202</v>
+        <v>2624.470070693924</v>
       </c>
       <c r="F17" t="n">
-        <v>2.701176948467467</v>
+        <v>51.22958198828021</v>
       </c>
       <c r="G17" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="H17" t="n">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="I17" t="n">
-        <v>121.9665192444366</v>
+        <v>107.7252090217433</v>
       </c>
       <c r="J17" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K17" t="n">
-        <v>947.470541614477</v>
+        <v>2345.779325397169</v>
       </c>
       <c r="L17" t="n">
-        <v>30.7810094313763</v>
+        <v>48.4332460753682</v>
       </c>
       <c r="M17" t="n">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="N17" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="O17" t="n">
-        <v>115.7078286407167</v>
+        <v>118.9330222298819</v>
       </c>
       <c r="P17" t="n">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="Q17" t="n">
-        <v>1586.757348540559</v>
+        <v>2139.659297836489</v>
       </c>
       <c r="R17" t="n">
-        <v>39.83412291667232</v>
+        <v>46.25645141854798</v>
       </c>
       <c r="S17" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T17" t="n">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20231211-1.5m-SP1 (3)-1</t>
+          <t>20231211-1.5M-SP3 (11)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7927.381813877891</v>
+        <v>7805.416603068557</v>
       </c>
       <c r="C18" t="n">
-        <v>20.05165969186624</v>
+        <v>52.52193926881258</v>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E18" t="n">
-        <v>378.7789005474489</v>
+        <v>1129.885221533701</v>
       </c>
       <c r="F18" t="n">
-        <v>19.46224294749834</v>
+        <v>33.61376535786642</v>
       </c>
       <c r="G18" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H18" t="n">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="I18" t="n">
-        <v>73.62955164798798</v>
+        <v>89.32491282244457</v>
       </c>
       <c r="J18" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="K18" t="n">
-        <v>1483.715226667645</v>
+        <v>1209.703929741933</v>
       </c>
       <c r="L18" t="n">
-        <v>38.51902421749082</v>
+        <v>34.78079829075136</v>
       </c>
       <c r="M18" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="N18" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O18" t="n">
-        <v>126.217115999357</v>
+        <v>110.1005526460611</v>
       </c>
       <c r="P18" t="n">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="Q18" t="n">
-        <v>1541.408958249706</v>
+        <v>1499.728047063506</v>
       </c>
       <c r="R18" t="n">
-        <v>39.26078142688586</v>
+        <v>38.72632240561329</v>
       </c>
       <c r="S18" t="n">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="T18" t="n">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20231217-SP3-3 (1)</t>
+          <t>20231211-1.5M-SP3 (17)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6247.161776854214</v>
+        <v>6440.117599876924</v>
       </c>
       <c r="C19" t="n">
-        <v>18.69052823432844</v>
+        <v>89.70789071217652</v>
       </c>
       <c r="D19" t="n">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="E19" t="n">
-        <v>86.48525525699098</v>
+        <v>1514.959337559601</v>
       </c>
       <c r="F19" t="n">
-        <v>9.299744902791204</v>
+        <v>38.92247856393014</v>
       </c>
       <c r="G19" t="n">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H19" t="n">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="I19" t="n">
-        <v>111.9400010399889</v>
+        <v>119.1251958278913</v>
       </c>
       <c r="J19" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K19" t="n">
-        <v>1172.779162923039</v>
+        <v>1317.64612892706</v>
       </c>
       <c r="L19" t="n">
-        <v>34.24586344250994</v>
+        <v>36.29939571021893</v>
       </c>
       <c r="M19" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N19" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="O19" t="n">
-        <v>109.4001219379156</v>
+        <v>133.9502098725422</v>
       </c>
       <c r="P19" t="n">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="Q19" t="n">
-        <v>1209.22508778495</v>
+        <v>1096.004661463091</v>
       </c>
       <c r="R19" t="n">
-        <v>34.77391389799184</v>
+        <v>33.10596111673985</v>
       </c>
       <c r="S19" t="n">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="T19" t="n">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20231217-SP1-16 (1)</t>
+          <t>20231217-SP1-15 (1)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4943.689209197083</v>
+        <v>2116.626397385719</v>
       </c>
       <c r="C20" t="n">
-        <v>18.8727763306783</v>
+        <v>77.89296471847406</v>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="E20" t="n">
-        <v>23.54661930229319</v>
+        <v>1148.230103404168</v>
       </c>
       <c r="F20" t="n">
-        <v>4.852485888932928</v>
+        <v>33.88554416567879</v>
       </c>
       <c r="G20" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H20" t="n">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="I20" t="n">
-        <v>105.326107236026</v>
+        <v>105.2286861767656</v>
       </c>
       <c r="J20" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K20" t="n">
-        <v>1492.517330477179</v>
+        <v>1119.527696453807</v>
       </c>
       <c r="L20" t="n">
-        <v>38.63311184045597</v>
+        <v>33.45934393340382</v>
       </c>
       <c r="M20" t="n">
         <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O20" t="n">
-        <v>144.4218432954556</v>
+        <v>137.8000975473138</v>
       </c>
       <c r="P20" t="n">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Q20" t="n">
-        <v>1724.150900029692</v>
+        <v>1224.573463958469</v>
       </c>
       <c r="R20" t="n">
-        <v>41.52289609395872</v>
+        <v>34.99390609746887</v>
       </c>
       <c r="S20" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="T20" t="n">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20231114-DAy14-SP3 (13)</t>
+          <t>20231217-SP1-16 (1)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5965.766103998989</v>
+        <v>4943.689209197083</v>
       </c>
       <c r="C21" t="n">
-        <v>22.02309999744492</v>
+        <v>88.7592287226219</v>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="E21" t="n">
-        <v>162.2768782610354</v>
+        <v>1632.023622572542</v>
       </c>
       <c r="F21" t="n">
-        <v>12.73879422320007</v>
+        <v>40.39831212529234</v>
       </c>
       <c r="G21" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H21" t="n">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="I21" t="n">
-        <v>86.16453668571739</v>
+        <v>123.0454986296798</v>
       </c>
       <c r="J21" t="n">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="K21" t="n">
-        <v>845.4330836044214</v>
+        <v>1720.80718383051</v>
       </c>
       <c r="L21" t="n">
-        <v>29.07633201771539</v>
+        <v>41.48261303040721</v>
       </c>
       <c r="M21" t="n">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="N21" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="O21" t="n">
-        <v>129.4996118278767</v>
+        <v>144.4180640282761</v>
       </c>
       <c r="P21" t="n">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="Q21" t="n">
-        <v>1470.86392017146</v>
+        <v>1724.316258321991</v>
       </c>
       <c r="R21" t="n">
-        <v>38.35184376495425</v>
+        <v>41.52488721624648</v>
       </c>
       <c r="S21" t="n">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="T21" t="n">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20231211-1.5m-SP1 (7)-1</t>
+          <t>20231217-SP3-16 (2)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9875.397441974832</v>
+        <v>5275.285213575725</v>
       </c>
       <c r="C22" t="n">
-        <v>22.56914136230361</v>
+        <v>71.20937754884993</v>
       </c>
       <c r="D22" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E22" t="n">
-        <v>316.4053183259675</v>
+        <v>1042.872628774075</v>
       </c>
       <c r="F22" t="n">
-        <v>17.78778564987693</v>
+        <v>32.29353849880926</v>
       </c>
       <c r="G22" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H22" t="n">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I22" t="n">
-        <v>74.66921445399699</v>
+        <v>98.88928802567966</v>
       </c>
       <c r="J22" t="n">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="K22" t="n">
-        <v>2306.512432998087</v>
+        <v>1204.332315692116</v>
       </c>
       <c r="L22" t="n">
-        <v>48.02616404625802</v>
+        <v>34.70349140493094</v>
       </c>
       <c r="M22" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="N22" t="n">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="O22" t="n">
-        <v>119.1931214284489</v>
+        <v>120.0028895912413</v>
       </c>
       <c r="P22" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Q22" t="n">
-        <v>2150.467845881532</v>
+        <v>1451.687230856053</v>
       </c>
       <c r="R22" t="n">
-        <v>46.37313711494546</v>
+        <v>38.10101351481418</v>
       </c>
       <c r="S22" t="n">
         <v>81</v>
       </c>
       <c r="T22" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20231114-DAY14-SP1 (17)</t>
+          <t>20231217-SP3-18 (1)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6380.757124315635</v>
+        <v>7719.591920926362</v>
       </c>
       <c r="C23" t="n">
-        <v>17.69805649716794</v>
+        <v>97.03112118940359</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="E23" t="n">
-        <v>134.4222664418351</v>
+        <v>2062.520753917905</v>
       </c>
       <c r="F23" t="n">
-        <v>11.59406168871958</v>
+        <v>45.41498380400355</v>
       </c>
       <c r="G23" t="n">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H23" t="n">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="I23" t="n">
-        <v>63.04158342481053</v>
+        <v>123.2011363425571</v>
       </c>
       <c r="J23" t="n">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="K23" t="n">
-        <v>556.0629399143012</v>
+        <v>1699.984352253546</v>
       </c>
       <c r="L23" t="n">
-        <v>23.58098683079869</v>
+        <v>41.23086649894162</v>
       </c>
       <c r="M23" t="n">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="N23" t="n">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="O23" t="n">
-        <v>132.5220307436591</v>
+        <v>134.1312932408911</v>
       </c>
       <c r="P23" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q23" t="n">
-        <v>1288.990585665799</v>
+        <v>1546.628895923486</v>
       </c>
       <c r="R23" t="n">
-        <v>35.90251503259623</v>
+        <v>39.32720300152918</v>
       </c>
       <c r="S23" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="T23" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20231217-SP1-15 (1)</t>
+          <t>20231217-SP3-3 (1)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2116.626397385719</v>
+        <v>6247.161776854214</v>
       </c>
       <c r="C24" t="n">
-        <v>13.93720848813673</v>
+        <v>63.61919845217817</v>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E24" t="n">
-        <v>23.89501667934437</v>
+        <v>1054.333524127416</v>
       </c>
       <c r="F24" t="n">
-        <v>4.888252927104363</v>
+        <v>32.47050236949554</v>
       </c>
       <c r="G24" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H24" t="n">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="I24" t="n">
-        <v>117.1991195698219</v>
+        <v>90.4784345444933</v>
       </c>
       <c r="J24" t="n">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="K24" t="n">
-        <v>1134.455907266257</v>
+        <v>993.6342724693847</v>
       </c>
       <c r="L24" t="n">
-        <v>33.68168504196691</v>
+        <v>31.52196492081965</v>
       </c>
       <c r="M24" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="N24" t="n">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="O24" t="n">
-        <v>137.8000975473138</v>
+        <v>109.3526842989451</v>
       </c>
       <c r="P24" t="n">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="Q24" t="n">
-        <v>1224.573463958469</v>
+        <v>1210.461729697416</v>
       </c>
       <c r="R24" t="n">
-        <v>34.99390609746887</v>
+        <v>34.79169052658143</v>
       </c>
       <c r="S24" t="n">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="T24" t="n">
-        <v>168</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20231211-1.5M-SP3 (11)</t>
+          <t>20231217-SP3-4  (1)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7805.416603068557</v>
+        <v>6367.852673106659</v>
       </c>
       <c r="C25" t="n">
-        <v>20.36897882461195</v>
+        <v>53.05185413315996</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E25" t="n">
-        <v>43.62659163287042</v>
+        <v>608.5072874359438</v>
       </c>
       <c r="F25" t="n">
-        <v>6.605042894097692</v>
+        <v>24.6679404781985</v>
       </c>
       <c r="G25" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H25" t="n">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I25" t="n">
-        <v>138.9454582041764</v>
+        <v>81.35649513529948</v>
       </c>
       <c r="J25" t="n">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="K25" t="n">
-        <v>1544.556986075734</v>
+        <v>761.2280115529553</v>
       </c>
       <c r="L25" t="n">
-        <v>39.30085223090887</v>
+        <v>27.5903608449211</v>
       </c>
       <c r="M25" t="n">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="N25" t="n">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="O25" t="n">
-        <v>110.2591046671518</v>
+        <v>110.8593492086361</v>
       </c>
       <c r="P25" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="Q25" t="n">
-        <v>1496.233896333652</v>
+        <v>917.0016292235274</v>
       </c>
       <c r="R25" t="n">
-        <v>38.68118271632412</v>
+        <v>30.28203476029191</v>
       </c>
       <c r="S25" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="T25" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20231114-DAy14-SP3 (12)</t>
+          <t>20231217-SP3-7 (3)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5688.259913390969</v>
+        <v>4255.329487941294</v>
       </c>
       <c r="C26" t="n">
-        <v>17.39720504396646</v>
+        <v>63.19838286077079</v>
       </c>
       <c r="D26" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E26" t="n">
-        <v>115.05339955606</v>
+        <v>1179.898654693684</v>
       </c>
       <c r="F26" t="n">
-        <v>10.7262947729428</v>
+        <v>34.34965290499577</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="H26" t="n">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I26" t="n">
-        <v>115.3659308366884</v>
+        <v>94.01122288289048</v>
       </c>
       <c r="J26" t="n">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="K26" t="n">
-        <v>1227.740364247864</v>
+        <v>1446.646636627622</v>
       </c>
       <c r="L26" t="n">
-        <v>35.03912619127173</v>
+        <v>38.03480822388384</v>
       </c>
       <c r="M26" t="n">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="N26" t="n">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="O26" t="n">
-        <v>114.0741343209355</v>
+        <v>115.7075263345184</v>
       </c>
       <c r="P26" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q26" t="n">
-        <v>1800.669586490273</v>
+        <v>1586.779141593712</v>
       </c>
       <c r="R26" t="n">
-        <v>42.43429728993132</v>
+        <v>39.83439646327921</v>
       </c>
       <c r="S26" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="T26" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20231031-DAY0-SP1 (1)</t>
+          <t>20231217-SP3-8 (2)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4703.547453800553</v>
+        <v>6796.976083817637</v>
       </c>
       <c r="C27" t="n">
-        <v>14.24754115400107</v>
+        <v>130.8791898738088</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="E27" t="n">
-        <v>128.0860397594216</v>
+        <v>3496.8339419017</v>
       </c>
       <c r="F27" t="n">
-        <v>11.31751031629402</v>
+        <v>59.13403370227419</v>
       </c>
       <c r="G27" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="H27" t="n">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I27" t="n">
-        <v>144.1528560636751</v>
+        <v>143.2144409221782</v>
       </c>
       <c r="J27" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K27" t="n">
-        <v>2424.421833313796</v>
+        <v>2466.985880487964</v>
       </c>
       <c r="L27" t="n">
-        <v>49.23841826575867</v>
+        <v>49.66876161621068</v>
       </c>
       <c r="M27" t="n">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="N27" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O27" t="n">
-        <v>89.07266096749828</v>
+        <v>147.2425649460264</v>
       </c>
       <c r="P27" t="n">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="Q27" t="n">
-        <v>3607.345053340184</v>
+        <v>1919.524701025892</v>
       </c>
       <c r="R27" t="n">
-        <v>60.06117758869022</v>
+        <v>43.81238068201603</v>
       </c>
       <c r="S27" t="n">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="T27" t="n">
-        <v>134</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>